--- a/Front Panel/BOM-FP-Rev2e.xlsx
+++ b/Front Panel/BOM-FP-Rev2e.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwver\Documents\Hobby\Curve Tracer\Version 3\Final Version\Front Panel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77CDE798-1550-4E7A-A76E-DD08624D34B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE52411-B146-4C91-AE52-B0B9FDF22529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="1500" windowWidth="20325" windowHeight="13980" xr2:uid="{045EFDA7-D80F-406D-8318-0D6024B6C034}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="12015" xr2:uid="{045EFDA7-D80F-406D-8318-0D6024B6C034}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM-FacePlateRev2b28JUN22" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="129">
   <si>
     <t>Quantity</t>
   </si>
@@ -406,16 +406,33 @@
   </si>
   <si>
     <t>Changed R3 description and p/n to a 1206 part</t>
+  </si>
+  <si>
+    <t>Cable harnesses:</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/1005002942389730.html?spm=a2g0o.productlist.main.9.8badZ4V9Z4V92a&amp;algo_pvid=94a6380a-288b-4c3a-acc3-61c2ba7c95ce&amp;algo_exp_id=94a6380a-288b-4c3a-acc3-61c2ba7c95ce-8&amp;pdp_ext_f=%7B%22order%22%3A%2241%22%2C%22eval%22%3A%221%22%7D&amp;pdp_npi=6%40dis%21EUR%210.31%210.27%21%21%210.35%210.30%21%40211b80d117550731005353576e8de1%2112000022896959057%21sea%21NL%210%21ABX%211%210%21n_tag%3A-29910%3Bm03_new_user%3A-29895&amp;curPageLogUid=Souz7hgWNLUp&amp;utparam-url=scene%3Asearch%7Cquery_from%3A%7Cx_object_id%3A1005002942389730%7C_p_origin_prod%3A</t>
+  </si>
+  <si>
+    <t> https://nl.aliexpress.com/w/wholesale-pre-crimped-cable-6-colors.html?spm=a2g0o.home.auto_suggest.4.60ca306bMkCXSW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -476,10 +493,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -505,8 +523,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -819,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE43F4E9-E425-4156-904B-975EBF3C22ED}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,7 +1301,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>1</v>
       </c>
@@ -1305,7 +1334,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -1338,7 +1367,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -1371,7 +1400,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2</v>
       </c>
@@ -1404,7 +1433,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>1</v>
       </c>
@@ -1437,37 +1466,74 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
         <v>45505</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B29" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>124</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B30" t="s">
         <v>125</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D24" r:id="rId1" display="https://nl.aliexpress.com/w/wholesale-pre-crimped-cable-6-colors.html?spm=a2g0o.home.auto_suggest.4.60ca306bMkCXSW" xr:uid="{6848071E-BB11-44C5-AD3C-E6440035E820}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>